--- a/RESPUESTA_FRECUENCIA_45.xlsx
+++ b/RESPUESTA_FRECUENCIA_45.xlsx
@@ -28,7 +28,7 @@
     <t>Coherence</t>
   </si>
   <si>
-    <t>*</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>

--- a/RESPUESTA_FRECUENCIA_45.xlsx
+++ b/RESPUESTA_FRECUENCIA_45.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>rta freq 45°</t>
   </si>
@@ -308,8 +308,8 @@
       <c r="A3" s="1">
         <v>10.742188</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>-10.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -350,8 +350,8 @@
       <c r="A6" s="1">
         <v>13.671875</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>-10.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -364,8 +364,8 @@
       <c r="A7" s="1">
         <v>14.648438</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+      <c r="B7" s="1">
+        <v>-10.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -378,8 +378,8 @@
       <c r="A8" s="1">
         <v>15.625</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+      <c r="B8" s="1">
+        <v>-10.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -392,8 +392,8 @@
       <c r="A9" s="1">
         <v>16.601563</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+      <c r="B9" s="1">
+        <v>-10.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -406,8 +406,8 @@
       <c r="A10" s="1">
         <v>17.578125</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
+      <c r="B10" s="1">
+        <v>-10.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
